--- a/Crawler/crawlresults.xlsx
+++ b/Crawler/crawlresults.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>

--- a/Crawler/crawlresults.xlsx
+++ b/Crawler/crawlresults.xlsx
@@ -461,41 +461,41 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Conflicted Features</t>
+          <t>Conflicting Features</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Third Party Frames</t>
+          <t>Third Party Domains</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://permissionspolicy.xyz/</t>
+          <t>https://www.google.com/</t>
         </is>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['geolocation']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[['geolocation', 'permissionspolicy.cdn-gamma.com']]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>

--- a/Crawler/crawlresults.xlsx
+++ b/Crawler/crawlresults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,27 +473,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.google.com/</t>
+          <t>https://permissionspolicy.xyz/</t>
         </is>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['geolocation']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['permissionspolicy.cdn-gamma.com']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://google.com/</t>
+        </is>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://facebook.com/</t>
+        </is>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/Crawler/crawlresults.xlsx
+++ b/Crawler/crawlresults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,36 +473,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://permissionspolicy.xyz/</t>
+          <t>https://google.com/</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['geolocation']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['permissionspolicy.cdn-gamma.com']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://google.com/</t>
+          <t>https://facebook.com/</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -523,35 +523,6 @@
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://facebook.com/</t>
-        </is>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/Crawler/crawlresults.xlsx
+++ b/Crawler/crawlresults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://google.com/</t>
+          <t>https://google.nl/</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -502,7 +502,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://facebook.com/</t>
+          <t>https://surfnet.nl/</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -523,6 +523,2587 @@
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://cwi.nl/</t>
+        </is>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://nos.nl/</t>
+        </is>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['cdn.optoutadvertising.com']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://uu.nl/</t>
+        </is>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://ad.nl/</t>
+        </is>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://transip.nl/</t>
+        </is>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://telegraaf.nl/</t>
+        </is>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://tudelft.nl/</t>
+        </is>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://xs4all.nl/</t>
+        </is>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://rug.nl/</t>
+        </is>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://uva.nl/</t>
+        </is>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://ing.nl/</t>
+        </is>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://utwente.nl/</t>
+        </is>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['', 'www.utwente.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://digid.nl/</t>
+        </is>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://rijksoverheid.nl/</t>
+        </is>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://tue.nl/</t>
+        </is>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://vu.nl/</t>
+        </is>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://marktplaats.nl/</t>
+        </is>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://wur.nl/</t>
+        </is>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://volkskrant.nl/</t>
+        </is>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://flexwebhosting.nl/</t>
+        </is>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://dns.nl/</t>
+        </is>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://blogspot.nl/</t>
+        </is>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://amazon.nl/</t>
+        </is>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['images-eu.ssl-images-amazon.com', 'images-eu.ssl-images-amazon.com', 'aax-eu.amazon-adsystem.com', "javascript:'1'", 'about:blank']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://axc.nl/</t>
+        </is>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://rabobank.nl/</t>
+        </is>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://nrc.nl/</t>
+        </is>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://neostrada.nl/</t>
+        </is>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://skyberate.nl/</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://dn-s.nl/</t>
+        </is>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://belastingdienst.nl/</t>
+        </is>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['belastingdienst.demdex.net']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://universiteitleiden.nl/</t>
+        </is>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['about:blank']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://abnamro.nl/</t>
+        </is>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['', 'www.abnamro.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://mijndnsserver.nl/</t>
+        </is>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://thuisbezorgd.nl/</t>
+        </is>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://surfconext.nl/</t>
+        </is>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://government.nl/</t>
+        </is>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://eur.nl/</t>
+        </is>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://dumpert.nl/</t>
+        </is>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['', 'www.google.com', '', 'www.google.com']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://rijksmuseum.nl/</t>
+        </is>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://ns.nl/</t>
+        </is>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://solcon.nl/</t>
+        </is>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://deliveroo.nl/</t>
+        </is>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://anony.nl/</t>
+        </is>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://overheid.nl/</t>
+        </is>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://leidenuniv.nl/</t>
+        </is>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['about:blank']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://jouwweb.nl/</t>
+        </is>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://maastrichtuniversity.nl/</t>
+        </is>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['', 'consentcdn.cookiebot.eu']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://kvk.nl/</t>
+        </is>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://trouw.nl/</t>
+        </is>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://buienradar.nl/</t>
+        </is>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://autoriteitpersoonsgegevens.nl/</t>
+        </is>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://cbs.nl/</t>
+        </is>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['', 'www.cbs.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://hostnet.nl/</t>
+        </is>
+      </c>
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['www.hostnet.nl', 'widget.trustpilot.com', 'widget.trustpilot.com', 'atlantis.mijn.hostnet.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://rivm.nl/</t>
+        </is>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://dpgmedia.nl/</t>
+        </is>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://anwb.nl/</t>
+        </is>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://argewebhosting.nl/</t>
+        </is>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://rvo.nl/</t>
+        </is>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://dutchnews.nl/</t>
+        </is>
+      </c>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['googleads.g.doubleclick.net', 'googleads.g.doubleclick.net', '', 'about:blank', 'tpc.googlesyndication.com', 'www.google.com']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://doxygen.nl/</t>
+        </is>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://zxcs.nl/</t>
+        </is>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://parool.nl/</t>
+        </is>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://amsterdam.nl/</t>
+        </is>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['', 'www.amsterdam.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://coolblue.nl/</t>
+        </is>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://dyson.nl/</t>
+        </is>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://nintendo.nl/</t>
+        </is>
+      </c>
+      <c r="B69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['about:blank', 'accounts.nintendo.com', 'api.accounts.nintendo.com', 'api.ec.nintendo.com', 'apps.accounts.nintendo.com', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://npostart.nl/</t>
+        </is>
+      </c>
+      <c r="B70" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://denhaag.nl/</t>
+        </is>
+      </c>
+      <c r="B71" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://consumentenbond.nl/</t>
+        </is>
+      </c>
+      <c r="B72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://vangoghmuseum.nl/</t>
+        </is>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://nltimes.nl/</t>
+        </is>
+      </c>
+      <c r="B74" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['gum.criteo.com', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://nextdoor.nl/</t>
+        </is>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['10312105.fls.doubleclick.net', 'accounts.google.com', '', 'tr.snapchat.com', '', '', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://mature.nl/</t>
+        </is>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://tno.nl/</t>
+        </is>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://chello.nl/</t>
+        </is>
+      </c>
+      <c r="B78" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://rechtspraak.nl/</t>
+        </is>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>['', 'www.rechtspraak.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://npo.nl/</t>
+        </is>
+      </c>
+      <c r="B80" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://zalando.nl/</t>
+        </is>
+      </c>
+      <c r="B81" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://vpro.nl/</t>
+        </is>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://open-internet.nl/</t>
+        </is>
+      </c>
+      <c r="B83" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://sidn.nl/</t>
+        </is>
+      </c>
+      <c r="B84" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://geenstijl.nl/</t>
+        </is>
+      </c>
+      <c r="B85" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>['embed.kijk.nl', 'platform.twitter.com', 'www.youtube.com', 'www.youtube.com', 'www.youtube.com', 'www.google.com', '', '', '', '', '', 'platform.twitter.com', 'cdn.consentmanager.net', '', 'www.google.com']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://home.nl/</t>
+        </is>
+      </c>
+      <c r="B86" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://walibifastlane.nl/</t>
+        </is>
+      </c>
+      <c r="B87" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://nlnetlabs.nl/</t>
+        </is>
+      </c>
+      <c r="B88" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://bbw-chan.nl/</t>
+        </is>
+      </c>
+      <c r="B89" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>['acceptable.a-ads.com']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://gelderlander.nl/</t>
+        </is>
+      </c>
+      <c r="B90" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://funix.nl/</t>
+        </is>
+      </c>
+      <c r="B91" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>['www.google.com', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://eddie4.nl/</t>
+        </is>
+      </c>
+      <c r="B92" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/Crawler/crawlresults.xlsx
+++ b/Crawler/crawlresults.xlsx
@@ -493,15 +493,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.vandale.nl/</t>
+          <t>https://www.jonglaan.nl/</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('geolocation', ''), ('midi', ''), ('notifications', ''), ('push', ''), ('sync-xhr', ''), ('microphone', ''), ('camera', ''), ('magnetometer', ''), ('gyroscope', ''), ('speaker', 'self'), ('vibrate', ''), ('fullscreen', 'selfhttps://*.youtube.comhttps://*.youtube-nocookie.comhttps://*.youtu.be'), ('payment', '')]</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -509,12 +509,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>[['microphone *', 'about:blank']]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>[]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[['geolocation; microphone; camera; autoplay; fullscreen; payment; accelerometer; battery; ambient-light-sensor; display-capture; gyroscope; magnetometer; midi; ch-ua-platform-version; ch-ua-model'], ['geolocation; microphone; camera; autoplay; fullscreen; payment; accelerometer; battery; ambient-light-sensor; display-capture; gyroscope; magnetometer; midi; ch-ua-platform-version; ch-ua-model'], ['geolocation; microphone; camera; autoplay; fullscreen; payment; accelerometer; battery; ambient-light-sensor; display-capture; gyroscope; magnetometer; midi; ch-ua-platform-version; ch-ua-model']]</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -530,7 +530,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['about:blank']</t>
         </is>
       </c>
       <c r="K2" t="b">
